--- a/Symphony/2021/May/All Details/20.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/20.05.2021/MC Bank Statement May-2021.xlsx
@@ -16,7 +16,8 @@
     <sheet name="May-2021" sheetId="16" r:id="rId2"/>
     <sheet name="Expence" sheetId="15" r:id="rId3"/>
     <sheet name="Balance Transfer" sheetId="14" r:id="rId4"/>
-    <sheet name="CAPITAL" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId5"/>
+    <sheet name="CAPITAL" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -672,6 +673,9 @@
   </si>
   <si>
     <t>Jafor bKash(-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L=M/S Vai Vai </t>
   </si>
 </sst>
 </file>
@@ -2705,43 +2709,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5830,67 +5834,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="298"/>
-      <c r="P1" s="298"/>
-      <c r="Q1" s="298"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
+      <c r="P1" s="296"/>
+      <c r="Q1" s="296"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="297" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
+      <c r="P2" s="297"/>
+      <c r="Q2" s="297"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="298" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="300"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -5899,49 +5903,49 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="191" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="305" t="s">
+      <c r="B4" s="303" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="305" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="305" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="305" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="305" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="305" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="294" t="s">
+      <c r="I4" s="305" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="294" t="s">
+      <c r="J4" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="294" t="s">
+      <c r="K4" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="294" t="s">
+      <c r="L4" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="294" t="s">
+      <c r="M4" s="305" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="294" t="s">
+      <c r="N4" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="296" t="s">
+      <c r="O4" s="294" t="s">
         <v>93</v>
       </c>
       <c r="P4" s="307" t="s">
@@ -5957,21 +5961,21 @@
       <c r="W4" s="193"/>
     </row>
     <row r="5" spans="1:24" s="191" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="304"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="295"/>
-      <c r="O5" s="297"/>
+      <c r="A5" s="302"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="295"/>
       <c r="P5" s="308"/>
       <c r="Q5" s="287" t="s">
         <v>94</v>
@@ -9051,6 +9055,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9067,9 +9074,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9082,8 +9086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A84" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20565,12 +20569,140 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J15" sqref="I13:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="149">
+        <v>8140</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="149">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="145" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="149">
+        <v>13575</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="145" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="149">
+        <v>5790</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="149">
+        <v>15000</v>
+      </c>
+      <c r="C5" s="146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="141" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="149">
+        <v>12000</v>
+      </c>
+      <c r="C6" s="149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="149">
+        <v>25650</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="149">
+        <v>29000</v>
+      </c>
+      <c r="C8" s="146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="149">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="145" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="149">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
